--- a/Excels/AuthDataTable.xlsx
+++ b/Excels/AuthDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D511C-709A-47C7-92EB-75FEA860D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD05A4-7E3F-44C4-A209-0BFABA92F709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KahluaAuthData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>string</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,13 +429,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{074E0E0A-9951-40AA-A26B-823740D4535F}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{FF92AA63-FD69-4839-B99B-25ADB97AA9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -443,13 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F16BB7-1138-48FE-8D22-B7F862436B57}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="60.125" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
